--- a/tests/test_pipeline.xlsx
+++ b/tests/test_pipeline.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnc.thomas/Dropbox/crispr/pycharm/jts_crispr_processing/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3D9536-6C6D-DB40-A747-7F81597AF4ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21813774-483C-8A4A-B22C-75D1FF6986C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="3280" windowWidth="27640" windowHeight="22320" xr2:uid="{1E6D5898-7025-044B-BB4F-C0033C36AB70}"/>
+    <workbookView xWindow="10720" yWindow="3280" windowWidth="27640" windowHeight="22320" activeTab="3" xr2:uid="{1E6D5898-7025-044B-BB4F-C0033C36AB70}"/>
   </bookViews>
   <sheets>
     <sheet name="repmaps" sheetId="1" r:id="rId1"/>
     <sheet name="D3" sheetId="2" r:id="rId2"/>
     <sheet name="AvB" sheetId="4" r:id="rId3"/>
-    <sheet name="sample_deets" sheetId="3" r:id="rId4"/>
+    <sheet name="sample_details" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A22FB6A-866F-9C48-992B-C9510772F5C0}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5BB47A-277F-AE47-AB72-CAB16147EDC0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
